--- a/data/rivers/rivers_list.xlsx
+++ b/data/rivers/rivers_list.xlsx
@@ -1,21 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morey\Documents\R\rforecast\data\rivers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F67BEA-157A-4930-AE18-87305325AF21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>hydro_id</t>
+  </si>
+  <si>
+    <t>hydro_name</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>lat_hydro</t>
+  </si>
+  <si>
+    <t>lon_hydro</t>
+  </si>
+  <si>
+    <t>weather_id</t>
+  </si>
+  <si>
+    <t>weather_name</t>
+  </si>
+  <si>
+    <t>lat_weather</t>
+  </si>
+  <si>
+    <t>lon_weather</t>
+  </si>
+  <si>
+    <t>АНАВГАЙ - Р.АНАВГАЙ</t>
+  </si>
+  <si>
+    <t>ЭССО</t>
+  </si>
+  <si>
+    <t>КРАСНАЯ ТЫМЬ - р. Тымь</t>
+  </si>
+  <si>
+    <t>ОНОР</t>
+  </si>
+  <si>
+    <t>ЧЕРНОРУЧЬЕ - Р.ЧЕРНАЯ</t>
+  </si>
+  <si>
+    <t>ПРЕОБРАЖЕНИЕ</t>
+  </si>
+  <si>
+    <t>КУДИНОВКА - р. Калитва</t>
+  </si>
+  <si>
+    <t>МИЛЛЕРОВО</t>
+  </si>
+  <si>
+    <t>ВЛАДИМИРОВСКАЯ - р. Кундрючья</t>
+  </si>
+  <si>
+    <t>ШАХТЫ</t>
+  </si>
+  <si>
+    <t>КАЗАЧИЙ БРОД - Р.МЗЫМТА</t>
+  </si>
+  <si>
+    <t>СОЧИ</t>
+  </si>
+  <si>
+    <t>КУРКЕНТ - р. Чирахчай</t>
+  </si>
+  <si>
+    <t>КАСУМКЕНТ - р. Курах</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,17 +139,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,9 +195,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +229,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,9 +281,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,366 +474,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>hydro_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>hydro_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lat_hydro</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lon_hydro</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>weather_id</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>weather_name</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lat_weather</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lon_weather</t>
-        </is>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Денис Прохоров</t>
-        </is>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2062</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>АНАВГАЙ - Р.АНАВГАЙ</t>
-        </is>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1170</v>
       </c>
       <c r="D2">
-        <v>1170</v>
+        <v>56.066666669999996</v>
       </c>
       <c r="E2">
-        <v>56.06666667</v>
+        <v>158.93333329999999</v>
       </c>
       <c r="F2">
-        <v>158.9333333</v>
-      </c>
-      <c r="G2">
         <v>32363</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ЭССО</t>
-        </is>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>55.93</v>
       </c>
       <c r="I2">
-        <v>55.93</v>
-      </c>
-      <c r="J2">
-        <v>158.7</v>
+        <v>158.69999999999999</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Екатерина Смирнова</t>
-        </is>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>4032</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>КРАСНАЯ ТЫМЬ - р. Тымь</t>
-        </is>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1390</v>
       </c>
       <c r="D3">
-        <v>1390</v>
+        <v>50.48</v>
       </c>
       <c r="E3">
-        <v>50.48</v>
+        <v>142.38999999999999</v>
       </c>
       <c r="F3">
-        <v>142.39</v>
-      </c>
-      <c r="G3">
         <v>32077</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОНОР</t>
-        </is>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>50.23</v>
       </c>
       <c r="I3">
-        <v>50.23</v>
-      </c>
-      <c r="J3">
-        <v>142.58</v>
+        <v>142.58000000000001</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Елизавета Бахарева</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>5296</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ЯСНАЯ ПОЛЯНА - Р.ОРЕХОBКА</t>
-        </is>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5662</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>475</v>
       </c>
       <c r="D4">
-        <v>1790</v>
+        <v>43.14</v>
       </c>
       <c r="E4">
-        <v>45.35</v>
+        <v>134.16</v>
       </c>
       <c r="F4">
-        <v>134.19</v>
-      </c>
-      <c r="G4">
-        <v>31884</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>МАЛИНОВО</t>
-        </is>
+        <v>31989</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>42.900472219999997</v>
       </c>
       <c r="I4">
-        <v>45.25</v>
-      </c>
-      <c r="J4">
-        <v>134.16</v>
+        <v>133.89213889999999</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Екатерина Крастынь</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>5662</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ЧЕРНОРУЧЬЕ - Р.ЧЕРНАЯ</t>
-        </is>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>78501</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>1110</v>
       </c>
       <c r="D5">
-        <v>475</v>
+        <v>49.2</v>
       </c>
       <c r="E5">
-        <v>43.14</v>
+        <v>40.46</v>
       </c>
       <c r="F5">
-        <v>134.16</v>
-      </c>
-      <c r="G5">
-        <v>31989</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ПРЕОБРАЖЕНИЕ</t>
-        </is>
+        <v>34438</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>48.933333330000004</v>
       </c>
       <c r="I5">
-        <v>42.90047222</v>
-      </c>
-      <c r="J5">
-        <v>133.8921389</v>
+        <v>40.383333329999999</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Наталья Ахмерова</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>78501</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>КУДИНОВКА - р. Калитва</t>
-        </is>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>78519</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1120</v>
       </c>
       <c r="D6">
-        <v>1110</v>
+        <v>47.93</v>
       </c>
       <c r="E6">
-        <v>49.2</v>
+        <v>40.28</v>
       </c>
       <c r="F6">
-        <v>40.46</v>
-      </c>
-      <c r="G6">
-        <v>34438</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>МИЛЛЕРОВО</t>
-        </is>
+        <v>34635</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>47.700002779999998</v>
       </c>
       <c r="I6">
-        <v>48.93333333</v>
-      </c>
-      <c r="J6">
-        <v>40.38333333</v>
+        <v>40.283333329999998</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Дмитрий Мигунов</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>78519</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ВЛАДИМИРОВСКАЯ - р. Кундрючья</t>
-        </is>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>82060</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>839</v>
       </c>
       <c r="D7">
-        <v>1120</v>
+        <v>43.5</v>
       </c>
       <c r="E7">
-        <v>47.93</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="F7">
-        <v>40.28</v>
-      </c>
-      <c r="G7">
-        <v>34635</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ШАХТЫ</t>
-        </is>
+        <v>37099</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>43.577694440000002</v>
       </c>
       <c r="I7">
-        <v>47.70000278</v>
-      </c>
-      <c r="J7">
-        <v>40.28333333</v>
+        <v>39.759861110000003</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Михаил Санджиев</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>82060</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>КАЗАЧИЙ БРОД - Р.МЗЫМТА</t>
-        </is>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>84351</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>862</v>
       </c>
       <c r="D8">
-        <v>839</v>
+        <v>41.716666670000002</v>
       </c>
       <c r="E8">
-        <v>43.5</v>
+        <v>48.133333329999999</v>
       </c>
       <c r="F8">
-        <v>39.98</v>
-      </c>
-      <c r="G8">
-        <v>37099</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>СОЧИ</t>
-        </is>
+        <v>37597</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>41.666666669999998</v>
       </c>
       <c r="I8">
-        <v>43.57769444</v>
-      </c>
-      <c r="J8">
-        <v>39.75986111</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Евгения Ильяшенко</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>84351</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>КУРКЕНТ - р. Чирахчай</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>862</v>
-      </c>
-      <c r="E9">
-        <v>41.71666667</v>
-      </c>
-      <c r="F9">
-        <v>48.13333333</v>
-      </c>
-      <c r="G9">
-        <v>37597</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>КАСУМКЕНТ - р. Курах</t>
-        </is>
-      </c>
-      <c r="I9">
-        <v>41.66666667</v>
-      </c>
-      <c r="J9">
         <v>48.15</v>
       </c>
     </row>
